--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="23">
   <si>
     <t>Week of</t>
   </si>
@@ -82,6 +82,18 @@
   <si>
     <t>Xujia Wu</t>
   </si>
+  <si>
+    <t>Week of 1/25/2018</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Sprint Leader</t>
+  </si>
+  <si>
+    <t>Week of 1/12/2018</t>
+  </si>
 </sst>
 </file>
 
@@ -119,16 +131,16 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A726F0A-5F28-4C1C-A552-E596D5063A23}">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="D318" sqref="D318"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,22 +469,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -497,18 +509,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -529,22 +541,22 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -569,18 +581,18 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -601,22 +613,22 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -641,18 +653,18 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -673,22 +685,22 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -713,18 +725,18 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -745,22 +757,22 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
@@ -785,18 +797,18 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -817,22 +829,22 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
@@ -857,18 +869,18 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -889,22 +901,22 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="3"/>
+      <c r="A56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -929,18 +941,18 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="A59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -961,22 +973,22 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="3"/>
+      <c r="A65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
@@ -1001,18 +1013,18 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="A68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1033,22 +1045,22 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="3"/>
+      <c r="A74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -1073,18 +1085,18 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="A77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="A78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1105,22 +1117,22 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="3"/>
+      <c r="A83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -1145,18 +1157,18 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="A86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="A87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1177,22 +1189,22 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="3"/>
+      <c r="A92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
@@ -1217,18 +1229,18 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="A95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1249,22 +1261,22 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" s="3"/>
+      <c r="A101" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="4"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
@@ -1289,18 +1301,18 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="2" t="s">
+      <c r="A104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="2" t="s">
+      <c r="A105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1321,20 +1333,20 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="1"/>
+      <c r="A110" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" s="3"/>
       <c r="C110" s="3" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D110" s="3"/>
     </row>
@@ -1356,23 +1368,29 @@
       <c r="A112" t="s">
         <v>2</v>
       </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
       <c r="C112" t="s">
         <v>2</v>
       </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A113" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="A113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="A114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1393,22 +1411,22 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D119" s="3"/>
+      <c r="A119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="4"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
@@ -1433,18 +1451,18 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A122" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" s="2" t="s">
+      <c r="A122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="2" t="s">
+      <c r="A123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1465,22 +1483,22 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D128" s="3"/>
+      <c r="A128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
@@ -1505,18 +1523,18 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A131" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="2" t="s">
+      <c r="A131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="2" t="s">
+      <c r="A132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1537,22 +1555,22 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" s="1"/>
-      <c r="C137" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D137" s="3"/>
+      <c r="A137" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
@@ -1577,18 +1595,18 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A140" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" s="2" t="s">
+      <c r="A140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="2" t="s">
+      <c r="A141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1609,22 +1627,22 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D146" s="3"/>
+      <c r="A146" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
@@ -1649,18 +1667,18 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A149" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="2" t="s">
+      <c r="A149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A150" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="2" t="s">
+      <c r="A150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1681,22 +1699,22 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" s="1"/>
-      <c r="C155" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155" s="3"/>
+      <c r="A155" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="4"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
@@ -1721,18 +1739,18 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A158" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="2" t="s">
+      <c r="A158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="2" t="s">
+      <c r="A159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1753,22 +1771,22 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="1"/>
-      <c r="C164" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D164" s="3"/>
+      <c r="A164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" s="4"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
@@ -1793,18 +1811,18 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A167" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="2" t="s">
+      <c r="A167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A168" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" s="2" t="s">
+      <c r="A168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1825,22 +1843,22 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D173" s="3"/>
+      <c r="A173" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" s="4"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
@@ -1865,18 +1883,18 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A176" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="2" t="s">
+      <c r="A176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A177" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" s="2" t="s">
+      <c r="A177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1897,22 +1915,22 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B182" s="1"/>
-      <c r="C182" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D182" s="3"/>
+      <c r="A182" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="3"/>
+      <c r="C182" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182" s="4"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
@@ -1937,18 +1955,18 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A185" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="2" t="s">
+      <c r="A185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A186" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" s="2" t="s">
+      <c r="A186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1969,22 +1987,22 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191" s="1"/>
-      <c r="C191" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D191" s="3"/>
+      <c r="A191" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" s="4"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
@@ -2009,18 +2027,18 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A194" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C194" s="2" t="s">
+      <c r="A194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C195" s="2" t="s">
+      <c r="A195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2041,22 +2059,22 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B200" s="1"/>
-      <c r="C200" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D200" s="3"/>
+      <c r="A200" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" s="3"/>
+      <c r="C200" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200" s="4"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
@@ -2081,18 +2099,18 @@
       </c>
     </row>
     <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A203" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="2" t="s">
+      <c r="A203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A204" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C204" s="2" t="s">
+      <c r="A204" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2113,22 +2131,22 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B209" s="1"/>
-      <c r="C209" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D209" s="3"/>
+      <c r="A209" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="3"/>
+      <c r="C209" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D209" s="4"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
@@ -2153,18 +2171,18 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A212" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C212" s="2" t="s">
+      <c r="A212" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A213" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C213" s="2" t="s">
+      <c r="A213" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2185,22 +2203,22 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B218" s="1"/>
-      <c r="C218" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D218" s="3"/>
+      <c r="A218" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" s="3"/>
+      <c r="C218" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218" s="4"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
@@ -2220,23 +2238,26 @@
       <c r="A220" t="s">
         <v>2</v>
       </c>
+      <c r="B220" t="s">
+        <v>21</v>
+      </c>
       <c r="C220" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A221" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C221" s="2" t="s">
+      <c r="A221" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A222" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C222" s="2" t="s">
+      <c r="A222" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2257,22 +2278,22 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B227" s="1"/>
-      <c r="C227" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D227" s="3"/>
+      <c r="A227" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" s="3"/>
+      <c r="C227" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" s="4"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
@@ -2297,18 +2318,18 @@
       </c>
     </row>
     <row r="230" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A230" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C230" s="2" t="s">
+      <c r="A230" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" s="2" t="s">
+      <c r="A231" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2329,22 +2350,22 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B236" s="1"/>
-      <c r="C236" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D236" s="3"/>
+      <c r="A236" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" s="3"/>
+      <c r="C236" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236" s="4"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
@@ -2369,18 +2390,18 @@
       </c>
     </row>
     <row r="239" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A239" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C239" s="2" t="s">
+      <c r="A239" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A240" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" s="2" t="s">
+      <c r="A240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2401,22 +2422,22 @@
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B245" s="1"/>
-      <c r="C245" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D245" s="3"/>
+      <c r="A245" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" s="3"/>
+      <c r="C245" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D245" s="4"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
@@ -2441,18 +2462,18 @@
       </c>
     </row>
     <row r="248" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A248" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C248" s="2" t="s">
+      <c r="A248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A249" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C249" s="2" t="s">
+      <c r="A249" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2473,22 +2494,22 @@
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B254" s="1"/>
-      <c r="C254" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D254" s="3"/>
+      <c r="A254" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" s="3"/>
+      <c r="C254" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D254" s="4"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
@@ -2513,18 +2534,18 @@
       </c>
     </row>
     <row r="257" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A257" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C257" s="2" t="s">
+      <c r="A257" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A258" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C258" s="2" t="s">
+      <c r="A258" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2545,22 +2566,22 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B263" s="1"/>
-      <c r="C263" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D263" s="3"/>
+      <c r="A263" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B263" s="3"/>
+      <c r="C263" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D263" s="4"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
@@ -2585,18 +2606,18 @@
       </c>
     </row>
     <row r="266" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A266" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C266" s="2" t="s">
+      <c r="A266" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A267" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C267" s="2" t="s">
+      <c r="A267" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2617,22 +2638,22 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B272" s="1"/>
-      <c r="C272" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D272" s="3"/>
+      <c r="A272" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B272" s="3"/>
+      <c r="C272" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D272" s="4"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
@@ -2657,18 +2678,18 @@
       </c>
     </row>
     <row r="275" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A275" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C275" s="2" t="s">
+      <c r="A275" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A276" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C276" s="2" t="s">
+      <c r="A276" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2689,22 +2710,22 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B281" s="1"/>
-      <c r="C281" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D281" s="3"/>
+      <c r="A281" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="3"/>
+      <c r="C281" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D281" s="4"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
@@ -2729,18 +2750,18 @@
       </c>
     </row>
     <row r="284" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A284" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C284" s="2" t="s">
+      <c r="A284" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A285" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C285" s="2" t="s">
+      <c r="A285" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2761,22 +2782,22 @@
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
-      <c r="D289" s="1"/>
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B290" s="1"/>
-      <c r="C290" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D290" s="3"/>
+      <c r="A290" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290" s="3"/>
+      <c r="C290" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D290" s="4"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
@@ -2801,18 +2822,18 @@
       </c>
     </row>
     <row r="293" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A293" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C293" s="2" t="s">
+      <c r="A293" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A294" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C294" s="2" t="s">
+      <c r="A294" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2833,22 +2854,22 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
-      <c r="D298" s="1"/>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+      <c r="D298" s="3"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B299" s="1"/>
-      <c r="C299" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D299" s="3"/>
+      <c r="A299" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B299" s="3"/>
+      <c r="C299" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D299" s="4"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
@@ -2873,18 +2894,18 @@
       </c>
     </row>
     <row r="302" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A302" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C302" s="2" t="s">
+      <c r="A302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A303" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C303" s="2" t="s">
+      <c r="A303" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2905,22 +2926,22 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
-      <c r="D307" s="1"/>
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
+      <c r="D307" s="3"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A308" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B308" s="1"/>
-      <c r="C308" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D308" s="3"/>
+      <c r="A308" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B308" s="3"/>
+      <c r="C308" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D308" s="4"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
@@ -2945,18 +2966,18 @@
       </c>
     </row>
     <row r="311" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A311" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C311" s="2" t="s">
+      <c r="A311" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A312" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C312" s="2" t="s">
+      <c r="A312" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2977,22 +2998,22 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="1"/>
-      <c r="C316" s="1"/>
-      <c r="D316" s="1"/>
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A317" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B317" s="1"/>
-      <c r="C317" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D317" s="3"/>
+      <c r="A317" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B317" s="3"/>
+      <c r="C317" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D317" s="4"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
@@ -3017,18 +3038,18 @@
       </c>
     </row>
     <row r="320" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A320" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C320" s="2" t="s">
+      <c r="A320" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A321" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C321" s="2" t="s">
+      <c r="A321" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3050,15 +3071,93 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="C317:D317"/>
-    <mergeCell ref="A298:D298"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="C299:D299"/>
-    <mergeCell ref="A307:D307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="C308:D308"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:D227"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="C236:D236"/>
     <mergeCell ref="A280:D280"/>
     <mergeCell ref="A281:B281"/>
     <mergeCell ref="C281:D281"/>
@@ -3071,93 +3170,15 @@
     <mergeCell ref="A271:D271"/>
     <mergeCell ref="A272:B272"/>
     <mergeCell ref="C272:D272"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="C227:D227"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="C218:D218"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="C317:D317"/>
+    <mergeCell ref="A298:D298"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="A307:D307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="C308:D308"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsga\Desktop\ENG_II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aariggs\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11640" xr2:uid="{C14DF831-F34F-414D-AAFA-D8324DB30ED1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="25">
   <si>
     <t>Week of</t>
   </si>
@@ -92,13 +92,19 @@
     <t>Sprint Leader</t>
   </si>
   <si>
-    <t>Week of 1/12/2018</t>
+    <t>Week of 2/12/2018</t>
+  </si>
+  <si>
+    <t>Week of 2/19/2018</t>
+  </si>
+  <si>
+    <t>Week of 2/26/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,20 +461,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A726F0A-5F28-4C1C-A552-E596D5063A23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="4" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -476,17 +482,17 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -500,7 +506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -508,7 +514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -516,7 +522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -532,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -540,7 +546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -548,9 +554,9 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
@@ -558,7 +564,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -572,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -580,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -588,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -596,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -604,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -612,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -620,7 +626,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -630,7 +636,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -644,7 +650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -652,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -660,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -668,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -676,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -684,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -692,7 +698,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -702,7 +708,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -716,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -724,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,7 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -748,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -756,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -764,7 +770,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -774,7 +780,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -788,7 +794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -796,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -804,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -812,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -820,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -828,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -836,7 +842,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -846,7 +852,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -860,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -868,7 +874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -876,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -884,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -892,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -900,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
@@ -908,17 +914,17 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B56" s="3"/>
-      <c r="C56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -932,7 +938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -940,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -948,7 +954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -956,7 +962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -964,7 +970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -972,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>8</v>
       </c>
@@ -980,9 +986,9 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="4" t="s">
@@ -990,7 +996,7 @@
       </c>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1036,7 +1042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1058,7 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1068,7 @@
       </c>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1130,7 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1140,7 @@
       </c>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>4</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -1188,7 +1194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +1202,7 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1212,7 @@
       </c>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>12</v>
       </c>
@@ -1268,7 +1274,7 @@
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1284,7 @@
       </c>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>3</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>9</v>
       </c>
@@ -1340,17 +1346,17 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -1378,7 +1384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>3</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -1402,7 +1408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -1410,7 +1416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>8</v>
       </c>
@@ -1418,9 +1424,9 @@
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="4" t="s">
@@ -1428,7 +1434,7 @@
       </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -1458,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>7</v>
       </c>
@@ -1490,7 +1496,7 @@
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1506,7 @@
       </c>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>4</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>10</v>
       </c>
@@ -1562,7 +1568,7 @@
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1578,7 @@
       </c>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>3</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>11</v>
       </c>
@@ -1634,7 +1640,7 @@
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +1650,7 @@
       </c>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -1658,7 +1664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,7 +1680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>4</v>
       </c>
@@ -1682,7 +1688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>12</v>
       </c>
@@ -1706,7 +1712,7 @@
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1722,7 @@
       </c>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>3</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>4</v>
       </c>
@@ -1754,7 +1760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>9</v>
       </c>
@@ -1778,17 +1784,17 @@
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B164" s="3"/>
-      <c r="C164" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D164" s="4"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C164" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -1810,7 +1816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>3</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>8</v>
       </c>
@@ -1850,9 +1856,9 @@
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="4" t="s">
@@ -1860,7 +1866,7 @@
       </c>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>3</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +1904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>7</v>
       </c>
@@ -1922,7 +1928,7 @@
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>0</v>
       </c>
@@ -1932,7 +1938,7 @@
       </c>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>3</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>4</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -1986,7 +1992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>10</v>
       </c>
@@ -1994,7 +2000,7 @@
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2010,7 @@
       </c>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>3</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>4</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -2058,7 +2064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>11</v>
       </c>
@@ -2066,7 +2072,7 @@
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2082,7 @@
       </c>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>3</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>4</v>
       </c>
@@ -2114,7 +2120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>12</v>
       </c>
@@ -2138,7 +2144,7 @@
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +2154,7 @@
       </c>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1</v>
       </c>
@@ -2162,7 +2168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>2</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>4</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>9</v>
       </c>
@@ -2210,17 +2216,17 @@
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B218" s="3"/>
-      <c r="C218" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D218" s="4"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C218" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D218" s="3"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>3</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>8</v>
       </c>
@@ -2285,9 +2291,9 @@
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="4" t="s">
@@ -2295,7 +2301,7 @@
       </c>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>3</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -2349,7 +2355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>7</v>
       </c>
@@ -2357,7 +2363,7 @@
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +2373,7 @@
       </c>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>2</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>3</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>4</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>10</v>
       </c>
@@ -2429,7 +2435,7 @@
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>0</v>
       </c>
@@ -2439,7 +2445,7 @@
       </c>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>2</v>
       </c>
@@ -2461,7 +2467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>3</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -2477,7 +2483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>11</v>
       </c>
@@ -2501,7 +2507,7 @@
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>0</v>
       </c>
@@ -2511,7 +2517,7 @@
       </c>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -2525,7 +2531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>3</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>4</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -2565,7 +2571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>12</v>
       </c>
@@ -2573,7 +2579,7 @@
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2589,7 @@
       </c>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -2597,7 +2603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>2</v>
       </c>
@@ -2605,7 +2611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>3</v>
       </c>
@@ -2613,7 +2619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>4</v>
       </c>
@@ -2621,7 +2627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>9</v>
       </c>
@@ -2645,17 +2651,17 @@
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B272" s="3"/>
-      <c r="C272" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D272" s="4"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C272" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D272" s="3"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>2</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>3</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>4</v>
       </c>
@@ -2693,7 +2699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -2701,7 +2707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -2709,7 +2715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>8</v>
       </c>
@@ -2717,9 +2723,9 @@
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="4" t="s">
@@ -2727,7 +2733,7 @@
       </c>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +2747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>2</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>3</v>
       </c>
@@ -2757,7 +2763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>4</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>7</v>
       </c>
@@ -2789,7 +2795,7 @@
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>0</v>
       </c>
@@ -2799,7 +2805,7 @@
       </c>
       <c r="D290" s="4"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1</v>
       </c>
@@ -2813,7 +2819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>2</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>3</v>
       </c>
@@ -2829,7 +2835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>4</v>
       </c>
@@ -2837,7 +2843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -2845,7 +2851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>6</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>10</v>
       </c>
@@ -2861,7 +2867,7 @@
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>0</v>
       </c>
@@ -2871,7 +2877,7 @@
       </c>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>2</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>3</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>4</v>
       </c>
@@ -2909,7 +2915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -2925,7 +2931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>11</v>
       </c>
@@ -2933,7 +2939,7 @@
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>0</v>
       </c>
@@ -2943,7 +2949,7 @@
       </c>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>2</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>3</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>4</v>
       </c>
@@ -2981,7 +2987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -2989,7 +2995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>6</v>
       </c>
@@ -2997,7 +3003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
@@ -3005,7 +3011,7 @@
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>0</v>
       </c>
@@ -3015,7 +3021,7 @@
       </c>
       <c r="D317" s="4"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>2</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,7 +3051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>4</v>
       </c>
@@ -3053,7 +3059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>6</v>
       </c>
@@ -3071,33 +3077,75 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="C317:D317"/>
+    <mergeCell ref="A298:D298"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="A307:D307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="C308:D308"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="C281:D281"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="C290:D290"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="A271:D271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:D227"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="C101:D101"/>
@@ -3110,75 +3158,33 @@
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="C218:D218"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="C227:D227"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="C281:D281"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="C290:D290"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="A271:D271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="C317:D317"/>
-    <mergeCell ref="A298:D298"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="C299:D299"/>
-    <mergeCell ref="A307:D307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="C308:D308"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aariggs\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsga\Desktop\ENG_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27833C24-0750-4EE1-AE2E-DC3E49F31E2B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,20 +462,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272:D272"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="4" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -482,17 +483,17 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -506,7 +507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -514,7 +515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -522,7 +523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -530,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -538,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -546,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -554,9 +555,9 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
@@ -564,7 +565,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -578,7 +579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -586,7 +587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -594,7 +595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -602,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -610,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -618,7 +619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -626,9 +627,9 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
@@ -636,7 +637,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -650,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -658,7 +659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -666,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -674,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -682,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -690,7 +691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -698,7 +699,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -708,7 +709,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -722,7 +723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -730,7 +731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -738,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -754,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -762,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -770,7 +771,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -780,7 +781,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -794,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -802,7 +803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -810,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -826,7 +827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -834,7 +835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -842,7 +843,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -852,7 +853,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -866,7 +867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -874,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -882,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -890,7 +891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -898,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -906,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
@@ -914,17 +915,17 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -938,7 +939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -946,7 +947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -954,7 +955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -962,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -970,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -978,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>8</v>
       </c>
@@ -986,9 +987,9 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="4" t="s">
@@ -996,7 +997,7 @@
       </c>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
@@ -1058,9 +1059,9 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="4" t="s">
@@ -1068,7 +1069,7 @@
       </c>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>10</v>
       </c>
@@ -1130,7 +1131,7 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1141,7 @@
       </c>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1203,7 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1213,7 @@
       </c>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>12</v>
       </c>
@@ -1274,7 +1275,7 @@
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>3</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>9</v>
       </c>
@@ -1346,17 +1347,17 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>3</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>8</v>
       </c>
@@ -1424,9 +1425,9 @@
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="4" t="s">
@@ -1434,7 +1435,7 @@
       </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>7</v>
       </c>
@@ -1496,9 +1497,9 @@
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="4" t="s">
@@ -1506,7 +1507,7 @@
       </c>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1569,7 @@
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1579,7 @@
       </c>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>3</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>4</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -1632,7 +1633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>11</v>
       </c>
@@ -1640,7 +1641,7 @@
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1651,7 @@
       </c>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>4</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>12</v>
       </c>
@@ -1712,7 +1713,7 @@
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1723,7 @@
       </c>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -1736,7 +1737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>3</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>4</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +1777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>9</v>
       </c>
@@ -1784,17 +1785,17 @@
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>3</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>4</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>8</v>
       </c>
@@ -1856,9 +1857,9 @@
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="4" t="s">
@@ -1866,7 +1867,7 @@
       </c>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>3</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>4</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>7</v>
       </c>
@@ -1928,9 +1929,9 @@
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="4" t="s">
@@ -1938,7 +1939,7 @@
       </c>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>3</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>4</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>10</v>
       </c>
@@ -2000,7 +2001,7 @@
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>0</v>
       </c>
@@ -2010,7 +2011,7 @@
       </c>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -2024,7 +2025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>3</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>4</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>11</v>
       </c>
@@ -2072,7 +2073,7 @@
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2083,7 @@
       </c>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -2104,7 +2105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>3</v>
       </c>
@@ -2112,7 +2113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>4</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>12</v>
       </c>
@@ -2144,7 +2145,7 @@
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>0</v>
       </c>
@@ -2154,7 +2155,7 @@
       </c>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>1</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>2</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>4</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>9</v>
       </c>
@@ -2216,17 +2217,17 @@
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -2251,7 +2252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>3</v>
       </c>
@@ -2259,7 +2260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>4</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>8</v>
       </c>
@@ -2291,9 +2292,9 @@
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="4" t="s">
@@ -2301,7 +2302,7 @@
       </c>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>3</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>4</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>7</v>
       </c>
@@ -2363,9 +2364,9 @@
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="4" t="s">
@@ -2373,7 +2374,7 @@
       </c>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>2</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>3</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>4</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>10</v>
       </c>
@@ -2435,7 +2436,7 @@
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +2446,7 @@
       </c>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>2</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>3</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>11</v>
       </c>
@@ -2507,7 +2508,7 @@
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +2518,7 @@
       </c>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>3</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>4</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
         <v>12</v>
       </c>
@@ -2579,7 +2580,7 @@
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>0</v>
       </c>
@@ -2589,7 +2590,7 @@
       </c>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>2</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>3</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>4</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>9</v>
       </c>
@@ -2651,17 +2652,17 @@
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B272" s="3"/>
       <c r="C272" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D272" s="3"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -2675,7 +2676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>2</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>3</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>4</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>8</v>
       </c>
@@ -2723,9 +2724,9 @@
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="4" t="s">
@@ -2733,7 +2734,7 @@
       </c>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>2</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>3</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>4</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>7</v>
       </c>
@@ -2795,9 +2796,9 @@
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B290" s="3"/>
       <c r="C290" s="4" t="s">
@@ -2805,7 +2806,7 @@
       </c>
       <c r="D290" s="4"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>2</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>3</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>4</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>6</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>10</v>
       </c>
@@ -2867,7 +2868,7 @@
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>0</v>
       </c>
@@ -2877,7 +2878,7 @@
       </c>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>2</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>3</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>4</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -2923,7 +2924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>11</v>
       </c>
@@ -2939,7 +2940,7 @@
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
         <v>0</v>
       </c>
@@ -2949,7 +2950,7 @@
       </c>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>2</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>4</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>6</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
@@ -3011,7 +3012,7 @@
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
         <v>0</v>
       </c>
@@ -3021,7 +3022,7 @@
       </c>
       <c r="D317" s="4"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>1</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>2</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>3</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>4</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>6</v>
       </c>
@@ -3077,15 +3078,93 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="C317:D317"/>
-    <mergeCell ref="A298:D298"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="C299:D299"/>
-    <mergeCell ref="A307:D307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="C308:D308"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:D227"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="C236:D236"/>
     <mergeCell ref="A280:D280"/>
     <mergeCell ref="A281:B281"/>
     <mergeCell ref="C281:D281"/>
@@ -3098,93 +3177,15 @@
     <mergeCell ref="A271:D271"/>
     <mergeCell ref="A272:B272"/>
     <mergeCell ref="C272:D272"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="C227:D227"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="C218:D218"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="C317:D317"/>
+    <mergeCell ref="A298:D298"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="A307:D307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="C308:D308"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsga\Desktop\ENG_II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aariggs\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27833C24-0750-4EE1-AE2E-DC3E49F31E2B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="29">
   <si>
     <t>Week of</t>
   </si>
@@ -101,11 +100,23 @@
   <si>
     <t>Week of 2/26/2018</t>
   </si>
+  <si>
+    <t>back end encryption discussion.</t>
+  </si>
+  <si>
+    <t>Start With python encryption.</t>
+  </si>
+  <si>
+    <t>Python on windows having issues with mySQL</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,20 +473,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272:D272"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="4" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -483,7 +494,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -493,7 +504,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -507,7 +518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -515,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -523,7 +534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -531,7 +542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -539,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -547,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -555,7 +566,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -565,7 +576,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -579,7 +590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -587,7 +598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -595,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -603,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -611,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -619,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -627,7 +638,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -637,7 +648,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -651,7 +662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -659,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -667,7 +678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -675,7 +686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -683,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -691,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -699,7 +710,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -709,7 +720,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -723,7 +734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -731,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -739,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -755,7 +766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -763,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -771,7 +782,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -781,7 +792,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -795,7 +806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -803,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -811,7 +822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -827,7 +838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -835,7 +846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -843,7 +854,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -853,7 +864,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -867,7 +878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -875,7 +886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -883,7 +894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -891,7 +902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -899,7 +910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -907,7 +918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
@@ -915,7 +926,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>19</v>
       </c>
@@ -925,7 +936,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -939,7 +950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -947,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -955,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -963,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -971,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -979,7 +990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>8</v>
       </c>
@@ -987,7 +998,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>23</v>
       </c>
@@ -997,7 +1008,7 @@
       </c>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -1011,7 +1022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -1027,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1070,7 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>24</v>
       </c>
@@ -1069,7 +1080,7 @@
       </c>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -1083,7 +1094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -1091,7 +1102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -1099,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1115,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>10</v>
       </c>
@@ -1131,7 +1142,7 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1152,7 @@
       </c>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -1155,7 +1166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -1163,7 +1174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>4</v>
       </c>
@@ -1179,7 +1190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1187,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -1195,7 +1206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>11</v>
       </c>
@@ -1203,7 +1214,7 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1224,7 @@
       </c>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -1235,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -1243,7 +1254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -1259,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +1286,7 @@
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1296,7 @@
       </c>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -1299,7 +1310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -1307,7 +1318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>4</v>
       </c>
@@ -1323,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -1331,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -1339,7 +1350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1358,7 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>22</v>
       </c>
@@ -1357,7 +1368,7 @@
       </c>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -1371,7 +1382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -1385,39 +1396,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B113" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B114" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C114" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
+      <c r="B115" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
+      <c r="B116" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1448,7 @@
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>23</v>
       </c>
@@ -1435,7 +1458,7 @@
       </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -1449,7 +1472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -1465,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>4</v>
       </c>
@@ -1473,7 +1496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -1481,7 +1504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>7</v>
       </c>
@@ -1497,7 +1520,7 @@
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>24</v>
       </c>
@@ -1507,7 +1530,7 @@
       </c>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -1521,7 +1544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -1529,7 +1552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
@@ -1537,7 +1560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -1553,7 +1576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -1561,7 +1584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>10</v>
       </c>
@@ -1569,7 +1592,7 @@
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1602,7 @@
       </c>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -1593,7 +1616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>3</v>
       </c>
@@ -1609,7 +1632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>4</v>
       </c>
@@ -1617,7 +1640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -1625,7 +1648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -1633,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>11</v>
       </c>
@@ -1641,7 +1664,7 @@
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1674,7 @@
       </c>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -1665,7 +1688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -1673,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -1681,7 +1704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +1712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -1697,7 +1720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -1705,7 +1728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>12</v>
       </c>
@@ -1713,7 +1736,7 @@
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1746,7 @@
       </c>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -1737,7 +1760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -1745,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>3</v>
       </c>
@@ -1753,7 +1776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>4</v>
       </c>
@@ -1761,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -1769,7 +1792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -1777,7 +1800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>9</v>
       </c>
@@ -1785,7 +1808,7 @@
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>19</v>
       </c>
@@ -1795,7 +1818,7 @@
       </c>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -1817,7 +1840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>3</v>
       </c>
@@ -1825,7 +1848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>4</v>
       </c>
@@ -1833,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -1841,7 +1864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -1849,7 +1872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +1880,7 @@
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>23</v>
       </c>
@@ -1867,7 +1890,7 @@
       </c>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -1881,7 +1904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -1889,7 +1912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>3</v>
       </c>
@@ -1897,7 +1920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>4</v>
       </c>
@@ -1905,7 +1928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +1936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -1921,7 +1944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +1952,7 @@
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>24</v>
       </c>
@@ -1939,7 +1962,7 @@
       </c>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -1953,7 +1976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -1961,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>3</v>
       </c>
@@ -1969,7 +1992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>4</v>
       </c>
@@ -1977,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -1985,7 +2008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -1993,7 +2016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>10</v>
       </c>
@@ -2001,7 +2024,7 @@
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2034,7 @@
       </c>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -2025,7 +2048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -2033,7 +2056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>3</v>
       </c>
@@ -2041,7 +2064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>4</v>
       </c>
@@ -2049,7 +2072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -2057,7 +2080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -2065,7 +2088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>11</v>
       </c>
@@ -2073,7 +2096,7 @@
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>0</v>
       </c>
@@ -2083,7 +2106,7 @@
       </c>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -2097,7 +2120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -2105,7 +2128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>3</v>
       </c>
@@ -2113,7 +2136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>4</v>
       </c>
@@ -2121,7 +2144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -2129,7 +2152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -2137,7 +2160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>12</v>
       </c>
@@ -2145,7 +2168,7 @@
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +2178,7 @@
       </c>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1</v>
       </c>
@@ -2169,7 +2192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>2</v>
       </c>
@@ -2177,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
@@ -2185,7 +2208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -2201,7 +2224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -2209,7 +2232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>9</v>
       </c>
@@ -2217,7 +2240,7 @@
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>19</v>
       </c>
@@ -2227,7 +2250,7 @@
       </c>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -2241,7 +2264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -2252,7 +2275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>3</v>
       </c>
@@ -2260,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>4</v>
       </c>
@@ -2268,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -2276,7 +2299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>8</v>
       </c>
@@ -2292,7 +2315,7 @@
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>23</v>
       </c>
@@ -2302,7 +2325,7 @@
       </c>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1</v>
       </c>
@@ -2316,7 +2339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -2324,7 +2347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>3</v>
       </c>
@@ -2332,7 +2355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>4</v>
       </c>
@@ -2340,7 +2363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -2348,7 +2371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -2356,7 +2379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>7</v>
       </c>
@@ -2364,7 +2387,7 @@
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>24</v>
       </c>
@@ -2374,7 +2397,7 @@
       </c>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1</v>
       </c>
@@ -2388,7 +2411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>2</v>
       </c>
@@ -2396,7 +2419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>3</v>
       </c>
@@ -2404,7 +2427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>4</v>
       </c>
@@ -2412,7 +2435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -2420,7 +2443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -2428,7 +2451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>10</v>
       </c>
@@ -2436,7 +2459,7 @@
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2469,7 @@
       </c>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -2460,7 +2483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>2</v>
       </c>
@@ -2468,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>3</v>
       </c>
@@ -2476,7 +2499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -2484,7 +2507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -2492,7 +2515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -2500,7 +2523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>11</v>
       </c>
@@ -2508,7 +2531,7 @@
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2541,7 @@
       </c>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -2532,7 +2555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -2540,7 +2563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>3</v>
       </c>
@@ -2548,7 +2571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>4</v>
       </c>
@@ -2556,7 +2579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -2564,7 +2587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -2572,7 +2595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>12</v>
       </c>
@@ -2580,7 +2603,7 @@
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>0</v>
       </c>
@@ -2590,7 +2613,7 @@
       </c>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -2604,7 +2627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>2</v>
       </c>
@@ -2612,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>3</v>
       </c>
@@ -2620,7 +2643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>4</v>
       </c>
@@ -2628,7 +2651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -2636,7 +2659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -2644,7 +2667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>9</v>
       </c>
@@ -2652,7 +2675,7 @@
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>19</v>
       </c>
@@ -2662,7 +2685,7 @@
       </c>
       <c r="D272" s="3"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -2676,7 +2699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>2</v>
       </c>
@@ -2684,7 +2707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>3</v>
       </c>
@@ -2692,7 +2715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>4</v>
       </c>
@@ -2700,7 +2723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -2708,7 +2731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -2716,7 +2739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>8</v>
       </c>
@@ -2724,7 +2747,7 @@
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>23</v>
       </c>
@@ -2734,7 +2757,7 @@
       </c>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1</v>
       </c>
@@ -2748,7 +2771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>2</v>
       </c>
@@ -2756,7 +2779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>3</v>
       </c>
@@ -2764,7 +2787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>4</v>
       </c>
@@ -2772,7 +2795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -2780,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -2788,7 +2811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>7</v>
       </c>
@@ -2796,7 +2819,7 @@
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>24</v>
       </c>
@@ -2806,7 +2829,7 @@
       </c>
       <c r="D290" s="4"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1</v>
       </c>
@@ -2820,7 +2843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>2</v>
       </c>
@@ -2828,7 +2851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>3</v>
       </c>
@@ -2836,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>4</v>
       </c>
@@ -2844,7 +2867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -2852,7 +2875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>6</v>
       </c>
@@ -2860,7 +2883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>10</v>
       </c>
@@ -2868,7 +2891,7 @@
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>0</v>
       </c>
@@ -2878,7 +2901,7 @@
       </c>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1</v>
       </c>
@@ -2892,7 +2915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>2</v>
       </c>
@@ -2900,7 +2923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>3</v>
       </c>
@@ -2908,7 +2931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>4</v>
       </c>
@@ -2916,7 +2939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -2924,7 +2947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -2932,7 +2955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>11</v>
       </c>
@@ -2940,7 +2963,7 @@
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +2973,7 @@
       </c>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1</v>
       </c>
@@ -2964,7 +2987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>2</v>
       </c>
@@ -2972,7 +2995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,7 +3003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>4</v>
       </c>
@@ -2988,7 +3011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -2996,7 +3019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>6</v>
       </c>
@@ -3004,7 +3027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
@@ -3012,7 +3035,7 @@
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>0</v>
       </c>
@@ -3022,7 +3045,7 @@
       </c>
       <c r="D317" s="4"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1</v>
       </c>
@@ -3036,7 +3059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>2</v>
       </c>
@@ -3044,7 +3067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>3</v>
       </c>
@@ -3052,7 +3075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>4</v>
       </c>
@@ -3060,7 +3083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -3068,7 +3091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>6</v>
       </c>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="37">
   <si>
     <t>Week of</t>
   </si>
@@ -111,6 +111,30 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>back end encryption implementation.</t>
+  </si>
+  <si>
+    <t>back end encryption completed in Python.</t>
+  </si>
+  <si>
+    <t>Python integration issues with the front end team.</t>
+  </si>
+  <si>
+    <t>Convert back end encryption software to java from python to better integrate with the front end team</t>
+  </si>
+  <si>
+    <t>Started the conversion from python to java</t>
+  </si>
+  <si>
+    <t>the way that java handles strings is destroying the encryption data, Java was having trouble reaching the mySQL server.</t>
+  </si>
+  <si>
+    <t>Was able to fix java's connection to the mySQL server</t>
   </si>
 </sst>
 </file>
@@ -476,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123:D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,6 +978,9 @@
       <c r="A58" t="s">
         <v>2</v>
       </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -1363,82 +1390,68 @@
         <v>22</v>
       </c>
       <c r="B110" s="3"/>
-      <c r="C110" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C111" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" t="s">
-        <v>15</v>
-      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C112" t="s">
-        <v>2</v>
-      </c>
-      <c r="D112" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
     </row>
     <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C115" t="s">
-        <v>5</v>
-      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C116" t="s">
-        <v>6</v>
-      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
@@ -1453,64 +1466,66 @@
         <v>23</v>
       </c>
       <c r="B119" s="3"/>
-      <c r="C119" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D119" s="4"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C120" t="s">
-        <v>1</v>
-      </c>
-      <c r="D120" t="s">
-        <v>15</v>
-      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
-      <c r="C121" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B122" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
-      <c r="C124" t="s">
-        <v>5</v>
-      </c>
+      <c r="B124" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>6</v>
       </c>
-      <c r="C125" t="s">
-        <v>6</v>
-      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
@@ -1525,9 +1540,7 @@
         <v>24</v>
       </c>
       <c r="B128" s="3"/>
-      <c r="C128" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="C128" s="4"/>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,52 +1550,56 @@
       <c r="B129" t="s">
         <v>15</v>
       </c>
-      <c r="C129" t="s">
-        <v>1</v>
-      </c>
-      <c r="D129" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2</v>
       </c>
-      <c r="C130" t="s">
-        <v>2</v>
-      </c>
+      <c r="B130" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
     </row>
     <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
-      <c r="C133" t="s">
-        <v>5</v>
-      </c>
+      <c r="B133" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
-      <c r="C134" t="s">
-        <v>6</v>
-      </c>
+      <c r="B134" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
@@ -3100,58 +3117,61 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="108">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
+  <mergeCells count="123">
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="C317:D317"/>
+    <mergeCell ref="A298:D298"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="A307:D307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="C308:D308"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="C281:D281"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="C290:D290"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="A271:D271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:D227"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:D200"/>
     <mergeCell ref="A172:D172"/>
     <mergeCell ref="A173:B173"/>
     <mergeCell ref="C173:D173"/>
@@ -3164,51 +3184,63 @@
     <mergeCell ref="A163:D163"/>
     <mergeCell ref="A164:B164"/>
     <mergeCell ref="C164:D164"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="C218:D218"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="C227:D227"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="C281:D281"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="C290:D290"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="A271:D271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="C317:D317"/>
-    <mergeCell ref="A298:D298"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="C299:D299"/>
-    <mergeCell ref="A307:D307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="C308:D308"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -947,12 +947,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -962,9 +959,12 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1099,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -1421,6 +1421,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1430,15 +1439,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1578,7 +1578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -1900,12 +1900,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1918,6 +1912,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2367,12 +2367,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2385,6 +2379,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2544,7 +2544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2968,12 +2968,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2986,6 +2980,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3435,12 +3435,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3453,6 +3447,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11640" activeTab="4" xr2:uid="{C14DF831-F34F-414D-AAFA-D8324DB30ED1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21405" windowHeight="10335" activeTab="3" xr2:uid="{C14DF831-F34F-414D-AAFA-D8324DB30ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="47">
   <si>
     <t>Week of</t>
   </si>
@@ -138,6 +138,39 @@
   </si>
   <si>
     <t xml:space="preserve">properly formatting the required documents </t>
+  </si>
+  <si>
+    <t>Week of 2/05/2018</t>
+  </si>
+  <si>
+    <t>Create account creation screen</t>
+  </si>
+  <si>
+    <t>Created account creation screen</t>
+  </si>
+  <si>
+    <t>Linking screens together</t>
+  </si>
+  <si>
+    <t>More documentation</t>
+  </si>
+  <si>
+    <t>Proper formatting</t>
+  </si>
+  <si>
+    <t>Week of 2/26/2018</t>
+  </si>
+  <si>
+    <t>Clean up GUI and reconcile screen inconsistencies and update scrum backlog</t>
+  </si>
+  <si>
+    <t>Cleaned up GUI and reconciled screen inconsistencies and updated scrum backlog</t>
+  </si>
+  <si>
+    <t>Out of date info and inconsistencies</t>
+  </si>
+  <si>
+    <t>Week of 3/05/2018</t>
   </si>
 </sst>
 </file>
@@ -507,13 +540,13 @@
       <selection activeCell="A271" sqref="A271:D323"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="4" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -521,7 +554,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -531,7 +564,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -545,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -553,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -561,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -569,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -577,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -585,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -593,7 +626,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -603,7 +636,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -617,7 +650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -625,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -633,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -641,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -649,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -657,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -665,7 +698,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,7 +708,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -689,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -697,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -713,7 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -721,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -729,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -737,7 +770,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -747,7 +780,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -761,7 +794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -769,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -777,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -793,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -801,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -809,7 +842,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -819,7 +852,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -833,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -841,7 +874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -849,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -857,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -865,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -873,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -881,7 +914,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -891,7 +924,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -905,7 +938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -913,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -921,7 +954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -929,7 +962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -937,7 +970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -947,24 +980,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -979,15 +1012,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -995,7 +1028,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1005,7 +1038,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1035,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1043,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1059,7 +1092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1067,7 +1100,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1110,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1091,7 +1124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1123,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1131,7 +1164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1139,7 +1172,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1182,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1163,7 +1196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1171,7 +1204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1179,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1195,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1211,7 +1244,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1254,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1243,7 +1276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1259,7 +1292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -1283,7 +1316,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1326,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1307,7 +1340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1315,7 +1348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1331,7 +1364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1339,7 +1372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +1380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1355,7 +1388,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1398,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1379,7 +1412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -1387,7 +1420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1411,7 +1444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1421,6 +1454,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
@@ -1430,15 +1472,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1452,15 +1485,15 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1468,7 +1501,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1478,7 +1511,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +1539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1514,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +1555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1530,7 +1563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +1571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +1579,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1589,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1570,7 +1603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1578,7 +1611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1586,7 +1619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1594,7 +1627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1602,7 +1635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1618,7 +1651,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1661,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1642,7 +1675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1650,7 +1683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1658,7 +1691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1666,7 +1699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1674,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +1715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1690,7 +1723,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1733,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1714,7 +1747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1722,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1730,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1754,7 +1787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +1795,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +1805,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1786,7 +1819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1794,7 +1827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +1835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1810,7 +1843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1818,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +1859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1834,7 +1867,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +1877,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1858,7 +1891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -1866,7 +1899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1874,7 +1907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1890,7 +1923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1900,6 +1933,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1912,12 +1951,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1927,269 +1960,351 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63501F0-7A26-4008-89EF-F7F9CD176150}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2197,7 +2312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2205,63 +2320,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -2269,7 +2384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2277,63 +2392,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -2341,7 +2456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2349,24 +2464,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2379,12 +2500,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2394,19 +2509,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0193E54-C821-4268-9DAD-312CE7027412}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D3" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2414,7 +2529,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -2424,7 +2539,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2438,7 +2553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2450,7 +2565,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2464,7 +2579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2478,7 +2593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2492,7 +2607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2506,13 +2621,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2520,7 +2635,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2530,7 +2645,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2544,7 +2659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2558,7 +2673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2572,7 +2687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2586,7 +2701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2600,7 +2715,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -2614,13 +2729,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2628,7 +2743,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -2638,7 +2753,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2652,7 +2767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2662,7 +2777,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2672,7 +2787,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2682,7 +2797,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2692,7 +2807,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2702,13 +2817,13 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -2716,7 +2831,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -2726,7 +2841,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2740,7 +2855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2750,7 +2865,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2760,7 +2875,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2770,7 +2885,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2780,7 +2895,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2790,13 +2905,13 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -2804,7 +2919,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -2814,7 +2929,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -2828,7 +2943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -2838,7 +2953,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -2848,7 +2963,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2858,7 +2973,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2868,7 +2983,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -2878,13 +2993,13 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -2892,7 +3007,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
@@ -2902,7 +3017,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -2916,7 +3031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -2926,7 +3041,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -2936,7 +3051,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2946,7 +3061,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -2956,7 +3071,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -2968,6 +3083,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2980,12 +3101,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2999,9 +3114,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3124,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3019,7 +3134,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3033,7 +3148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3041,7 +3156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3049,7 +3164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3057,7 +3172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3065,7 +3180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3073,7 +3188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3081,7 +3196,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -3091,7 +3206,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3105,7 +3220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3113,7 +3228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3121,7 +3236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3129,7 +3244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3137,7 +3252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3145,7 +3260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -3153,7 +3268,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -3163,7 +3278,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -3177,7 +3292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -3185,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -3193,7 +3308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -3201,7 +3316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -3209,7 +3324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -3225,7 +3340,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -3235,7 +3350,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -3249,7 +3364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -3257,7 +3372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -3265,7 +3380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3273,7 +3388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3281,7 +3396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3289,7 +3404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -3297,7 +3412,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -3307,7 +3422,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3321,7 +3436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -3329,7 +3444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -3337,7 +3452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3345,7 +3460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3353,7 +3468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3361,7 +3476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -3369,7 +3484,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +3494,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -3393,7 +3508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -3401,7 +3516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -3409,7 +3524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -3417,7 +3532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -3425,7 +3540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -3435,6 +3550,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3447,12 +3568,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21405" windowHeight="10335" activeTab="3" xr2:uid="{C14DF831-F34F-414D-AAFA-D8324DB30ED1}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="21408" windowHeight="10332" activeTab="1" xr2:uid="{C14DF831-F34F-414D-AAFA-D8324DB30ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="57">
   <si>
     <t>Week of</t>
   </si>
@@ -171,6 +171,37 @@
   </si>
   <si>
     <t>Week of 3/05/2018</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Use case diagrams/Documentation</t>
+  </si>
+  <si>
+    <t>Retrieve client data</t>
+  </si>
+  <si>
+    <t>Updated Documentation/SRS</t>
+  </si>
+  <si>
+    <t>AES Encryption of Passwords</t>
+  </si>
+  <si>
+    <t>Documentation/SRS</t>
+  </si>
+  <si>
+    <t>Update documentation</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Refined Encryption
+Updated Documentation/SRS</t>
+  </si>
+  <si>
+    <t>Update Documentation</t>
   </si>
 </sst>
 </file>
@@ -536,17 +567,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A726F0A-5F28-4C1C-A552-E596D5063A23}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A271" sqref="A271:D323"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="4" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -554,7 +585,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -564,7 +595,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -578,7 +609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -586,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -594,7 +625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -602,7 +633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -610,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -618,7 +649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -626,7 +657,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -636,7 +667,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -650,7 +681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -658,7 +689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -666,7 +697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -674,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -682,7 +713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -690,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -698,7 +729,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -708,7 +739,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -722,7 +753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -730,7 +761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -738,7 +769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,7 +777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -754,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -762,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -770,7 +801,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -780,7 +811,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -794,7 +825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -802,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -810,7 +841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -826,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -834,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -842,7 +873,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -852,7 +883,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -866,7 +897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -874,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -882,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -890,7 +921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -898,7 +929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -906,7 +937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -914,7 +945,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -924,7 +955,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -938,7 +969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -946,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -954,7 +985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -962,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -970,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -980,480 +1011,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6186206B-49DF-4BAF-BCA3-2072C7EB9045}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1466,12 +1026,519 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6186206B-49DF-4BAF-BCA3-2072C7EB9045}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1485,15 +1552,15 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1501,7 +1568,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1511,7 +1578,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1525,7 +1592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1539,7 +1606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1547,7 +1614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1555,7 +1622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1563,7 +1630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1571,7 +1638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1579,7 +1646,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1656,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1603,7 +1670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1611,7 +1678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1619,7 +1686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1627,7 +1694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1635,7 +1702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1643,7 +1710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1651,7 +1718,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1728,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1675,7 +1742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1683,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1691,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1699,7 +1766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1707,7 +1774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1715,7 +1782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1723,7 +1790,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1800,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1747,7 +1814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1755,7 +1822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1763,7 +1830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1771,7 +1838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1779,7 +1846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1787,7 +1854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -1795,7 +1862,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1872,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1819,7 +1886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1827,7 +1894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1835,7 +1902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1843,7 +1910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1851,7 +1918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1859,7 +1926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1867,7 +1934,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -1877,7 +1944,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1891,7 +1958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -1899,7 +1966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1907,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -1915,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1923,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1933,12 +2000,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1951,6 +2012,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1960,20 +2027,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63501F0-7A26-4008-89EF-F7F9CD176150}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1981,7 +2048,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1991,7 +2058,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2005,7 +2072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2019,7 +2086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2033,7 +2100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2047,7 +2114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2061,7 +2128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2075,7 +2142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2083,7 +2150,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2093,7 +2160,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2107,7 +2174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2121,7 +2188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2135,7 +2202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +2230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -2177,7 +2244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2185,7 +2252,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
@@ -2195,7 +2262,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2209,7 +2276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2220,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2231,7 +2298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2253,7 +2320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2264,7 +2331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -2272,7 +2339,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2349,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2296,7 +2363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2304,7 +2371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2312,7 +2379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2320,7 +2387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2328,7 +2395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2336,7 +2403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -2344,7 +2411,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2421,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -2368,7 +2435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -2376,7 +2443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -2384,7 +2451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2392,7 +2459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2400,7 +2467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -2408,7 +2475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -2416,7 +2483,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +2493,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -2440,7 +2507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -2448,7 +2515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -2456,7 +2523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2464,7 +2531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +2539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -2482,12 +2549,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2500,6 +2561,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2509,19 +2576,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0193E54-C821-4268-9DAD-312CE7027412}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D3" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2529,7 +2596,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -2539,7 +2606,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2553,7 +2620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2565,7 +2632,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2579,7 +2646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2593,7 +2660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2607,7 +2674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2621,13 +2688,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2635,7 +2702,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2645,7 +2712,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2659,7 +2726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2673,7 +2740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2687,7 +2754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2701,7 +2768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2715,7 +2782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -2729,13 +2796,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2743,7 +2810,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -2753,7 +2820,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2767,7 +2834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2777,7 +2844,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2787,7 +2854,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2797,7 +2864,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2807,7 +2874,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2817,13 +2884,13 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -2831,7 +2898,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -2841,7 +2908,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2855,7 +2922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2865,7 +2932,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2875,7 +2942,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2885,7 +2952,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2895,7 +2962,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2905,13 +2972,13 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -2919,7 +2986,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +2996,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -2943,7 +3010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -2953,7 +3020,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -2963,7 +3030,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2973,7 +3040,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2983,7 +3050,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -2993,13 +3060,13 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -3007,7 +3074,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
@@ -3017,7 +3084,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -3031,7 +3098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -3041,7 +3108,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -3051,7 +3118,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -3061,7 +3128,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -3071,7 +3138,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -3083,12 +3150,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3101,6 +3162,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3114,9 +3181,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3124,7 +3191,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3134,7 +3201,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3148,7 +3215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3156,7 +3223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3164,7 +3231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3172,7 +3239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3180,7 +3247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3188,7 +3255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3196,7 +3263,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -3206,7 +3273,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3220,7 +3287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3228,7 +3295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3236,7 +3303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3244,7 +3311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3252,7 +3319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3260,7 +3327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -3268,7 +3335,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -3278,7 +3345,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -3292,7 +3359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -3300,7 +3367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -3308,7 +3375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -3316,7 +3383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -3324,7 +3391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -3332,7 +3399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -3340,7 +3407,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -3350,7 +3417,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -3364,7 +3431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -3372,7 +3439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -3380,7 +3447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3388,7 +3455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3396,7 +3463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3404,7 +3471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -3412,7 +3479,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +3489,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3436,7 +3503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -3444,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -3452,7 +3519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3460,7 +3527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3468,7 +3535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3476,7 +3543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -3484,7 +3551,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -3494,7 +3561,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -3508,7 +3575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -3516,7 +3583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -3524,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -3532,7 +3599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -3540,7 +3607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -3550,12 +3617,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3568,6 +3629,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="21408" windowHeight="10332" activeTab="1" xr2:uid="{C14DF831-F34F-414D-AAFA-D8324DB30ED1}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="21408" windowHeight="10332" xr2:uid="{C14DF831-F34F-414D-AAFA-D8324DB30ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="67">
   <si>
     <t>Week of</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Sprint 6</t>
-  </si>
-  <si>
-    <t>Mayer Bhakta</t>
   </si>
   <si>
     <t>Andre Manz</t>
@@ -202,6 +199,39 @@
   </si>
   <si>
     <t>Update Documentation</t>
+  </si>
+  <si>
+    <t>Mayur Bhakta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create and update documents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properly formatting the required documents </t>
+  </si>
+  <si>
+    <t>Update documentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update documents </t>
+  </si>
+  <si>
+    <t>Update documentations, talk about implementation, and start coding.</t>
+  </si>
+  <si>
+    <t>Created login, account creation, home page screens.</t>
+  </si>
+  <si>
+    <t>Continue creating and updating screens as needed.</t>
+  </si>
+  <si>
+    <t>Assigned task to team members, and worked on new documents for deliverable 2.</t>
+  </si>
+  <si>
+    <t>Clean up GUI, continue updating front end.</t>
+  </si>
+  <si>
+    <t>Some disagreements between members about the use cases</t>
   </si>
 </sst>
 </file>
@@ -567,14 +597,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A726F0A-5F28-4C1C-A552-E596D5063A23}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A271" sqref="A271:D323"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="4" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -587,11 +619,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -600,53 +632,83 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" t="s">
         <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C8" t="s">
         <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -658,12 +720,12 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -672,53 +734,83 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" t="s">
         <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" t="s">
         <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C17" t="s">
         <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -730,12 +822,12 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -744,50 +836,68 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -816,13 +926,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -888,13 +998,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -960,13 +1070,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1011,24 +1121,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1039,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6186206B-49DF-4BAF-BCA3-2072C7EB9045}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1061,11 +1171,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -1074,13 +1184,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1088,13 +1198,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1102,13 +1212,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1116,13 +1226,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1151,11 +1261,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -1164,13 +1274,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1178,13 +1288,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1192,13 +1302,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1206,13 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1254,13 +1364,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1326,13 +1436,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1398,13 +1508,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1470,13 +1580,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1521,6 +1631,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
@@ -1530,15 +1649,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1570,11 +1680,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -1583,13 +1693,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1597,13 +1707,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1661,13 +1771,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1733,13 +1843,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1805,13 +1915,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1877,13 +1987,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1949,13 +2059,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2000,6 +2110,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2012,12 +2128,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2027,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63501F0-7A26-4008-89EF-F7F9CD176150}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2050,11 +2160,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -2063,13 +2173,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2077,13 +2187,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2091,13 +2201,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2105,13 +2215,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2119,13 +2229,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2133,13 +2243,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2152,11 +2262,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2165,13 +2275,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2179,13 +2289,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2193,13 +2303,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2207,13 +2317,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2221,13 +2331,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2235,13 +2345,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2254,11 +2364,11 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -2267,13 +2377,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2281,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -2292,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -2303,7 +2413,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -2314,7 +2424,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -2325,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
@@ -2354,13 +2464,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2426,13 +2536,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2498,13 +2608,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2549,6 +2659,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2561,12 +2677,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2577,7 +2687,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D3" sqref="D1:D1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2598,11 +2708,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -2611,13 +2721,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2625,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -2637,13 +2747,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2651,13 +2761,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2665,13 +2775,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2679,13 +2789,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2704,11 +2814,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2717,13 +2827,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2731,13 +2841,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -2745,13 +2855,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
@@ -2759,13 +2869,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -2773,13 +2883,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -2787,13 +2897,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2825,13 +2935,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2913,13 +3023,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3001,13 +3111,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3089,13 +3199,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3150,6 +3260,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3162,12 +3278,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3193,7 +3303,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -3206,13 +3316,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3278,13 +3388,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3350,13 +3460,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3422,13 +3532,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3494,13 +3604,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3566,13 +3676,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -3617,6 +3727,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3629,12 +3745,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsgate\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ABEDA5-01BD-4EE1-9343-2F2FD70D1370}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="21408" windowHeight="10332" xr2:uid="{C14DF831-F34F-414D-AAFA-D8324DB30ED1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="2" xr2:uid="{C14DF831-F34F-414D-AAFA-D8324DB30ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="82">
   <si>
     <t>Week of</t>
   </si>
@@ -92,9 +93,6 @@
   </si>
   <si>
     <t>Sprint Leader</t>
-  </si>
-  <si>
-    <t>Week of 1/12/2018</t>
   </si>
   <si>
     <t>Week of 2/12/2018</t>
@@ -232,6 +230,54 @@
   </si>
   <si>
     <t>Some disagreements between members about the use cases</t>
+  </si>
+  <si>
+    <t>back end encryption discussion.</t>
+  </si>
+  <si>
+    <t>Start With python encryption.</t>
+  </si>
+  <si>
+    <t>Python on windows having issues with mySQL</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>back end encryption completed in Python.</t>
+  </si>
+  <si>
+    <t>back end encryption implementation.</t>
+  </si>
+  <si>
+    <t>Python integration issues with the front end team.</t>
+  </si>
+  <si>
+    <t>Python working withg mySQL</t>
+  </si>
+  <si>
+    <t>working on the SRS and Team member report.</t>
+  </si>
+  <si>
+    <t>back end encryption implementation and updating documentation.</t>
+  </si>
+  <si>
+    <t>getting team members to inform for documentation</t>
+  </si>
+  <si>
+    <t>Python encryption working withg mySQL</t>
+  </si>
+  <si>
+    <t>Started the conversion from python to java</t>
+  </si>
+  <si>
+    <t>Convert back end encryption software to java from python to better integrate with the front end team</t>
+  </si>
+  <si>
+    <t>the way that java handles strings is destroying the encryption data, Java was having trouble reaching the mySQL server.</t>
+  </si>
+  <si>
+    <t>Was able to fix java's connection to the mySQL server</t>
   </si>
 </sst>
 </file>
@@ -267,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -281,6 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,19 +644,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A726F0A-5F28-4C1C-A552-E596D5063A23}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -617,31 +664,31 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -655,63 +702,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -719,31 +766,31 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -757,63 +804,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -821,89 +868,89 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -911,7 +958,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -921,21 +968,21 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -943,7 +990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -951,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -959,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -967,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -975,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -983,7 +1030,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -993,21 +1040,21 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1015,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1023,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1039,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1102,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -1065,21 +1112,21 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1095,7 +1142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -1103,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1111,7 +1158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1121,516 +1168,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6186206B-49DF-4BAF-BCA3-2072C7EB9045}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1643,12 +1183,519 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6186206B-49DF-4BAF-BCA3-2072C7EB9045}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1656,21 +1703,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6E39C0-3A30-4150-AA6A-2A04DB3FF51A}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1678,17 +1725,17 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1702,7 +1749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1716,39 +1763,69 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1756,17 +1833,17 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1780,7 +1857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1788,39 +1865,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1828,7 +1937,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1947,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1852,7 +1961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1860,7 +1969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1868,7 +1977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1876,7 +1985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1884,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1892,7 +2001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1900,7 +2009,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -1910,7 +2019,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1924,7 +2033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1932,7 +2041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1940,7 +2049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1948,7 +2057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1956,7 +2065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1964,7 +2073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -1972,7 +2081,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +2091,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1996,7 +2105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2004,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -2012,7 +2121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2020,7 +2129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2028,7 +2137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +2145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2044,7 +2153,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2163,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -2068,7 +2177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2076,7 +2185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -2084,7 +2193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2092,7 +2201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2110,12 +2219,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2128,6 +2231,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2141,16 +2250,16 @@
       <selection activeCell="B23" sqref="B23:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2158,17 +2267,17 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2182,7 +2291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2196,63 +2305,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2260,17 +2369,17 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2284,7 +2393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2298,63 +2407,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2362,17 +2471,17 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2386,7 +2495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2397,51 +2506,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -2449,7 +2558,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -2459,7 +2568,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2473,7 +2582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2481,7 +2590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2489,7 +2598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2497,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2505,7 +2614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2513,7 +2622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -2521,7 +2630,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2640,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -2545,7 +2654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -2553,7 +2662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -2561,7 +2670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2569,7 +2678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2577,7 +2686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -2585,7 +2694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -2593,7 +2702,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
@@ -2603,7 +2712,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -2617,7 +2726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -2625,7 +2734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -2633,7 +2742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2641,7 +2750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -2649,7 +2758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -2659,12 +2768,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2677,6 +2780,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2690,15 +2799,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2706,17 +2815,17 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2730,7 +2839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2742,69 +2851,69 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2812,17 +2921,17 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2836,7 +2945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2850,69 +2959,69 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2920,7 +3029,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -2930,7 +3039,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2944,7 +3053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2954,7 +3063,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2964,7 +3073,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2974,7 +3083,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2984,7 +3093,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2994,13 +3103,13 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -3008,7 +3117,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +3127,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -3032,7 +3141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -3042,7 +3151,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -3052,7 +3161,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3062,7 +3171,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +3181,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -3082,13 +3191,13 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -3096,7 +3205,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -3106,7 +3215,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -3120,7 +3229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -3130,7 +3239,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -3140,7 +3249,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3150,7 +3259,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3160,7 +3269,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -3170,13 +3279,13 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -3184,7 +3293,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
@@ -3194,7 +3303,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -3208,7 +3317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -3218,7 +3327,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -3228,7 +3337,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -3238,7 +3347,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -3248,7 +3357,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -3260,12 +3369,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3278,6 +3381,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3291,9 +3400,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3301,7 +3410,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -3311,7 +3420,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3325,7 +3434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3333,7 +3442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3341,7 +3450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3349,7 +3458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3357,7 +3466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3365,7 +3474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3373,7 +3482,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -3383,7 +3492,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3397,7 +3506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3405,7 +3514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3413,7 +3522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3421,7 +3530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3429,7 +3538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3437,7 +3546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -3445,7 +3554,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -3455,7 +3564,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -3469,7 +3578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -3477,7 +3586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -3485,7 +3594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -3493,7 +3602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -3501,7 +3610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -3509,7 +3618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -3517,7 +3626,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -3527,7 +3636,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -3541,7 +3650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -3549,7 +3658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -3557,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3565,7 +3674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3573,7 +3682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3581,7 +3690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -3589,7 +3698,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -3599,7 +3708,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3613,7 +3722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -3621,7 +3730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -3629,7 +3738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3637,7 +3746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3645,7 +3754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3653,7 +3762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -3661,7 +3770,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -3671,7 +3780,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -3685,7 +3794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -3693,7 +3802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -3701,7 +3810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -3709,7 +3818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -3717,7 +3826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -3727,12 +3836,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3745,6 +3848,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27417"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aaron/Documents/GitHub/Software2project/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175A1108-BF86-4861-A9F1-5E1B884EA560}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="22180" windowHeight="15540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="22185" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -24,18 +25,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="89">
   <si>
     <t>Week of</t>
   </si>
@@ -289,12 +290,27 @@
   </si>
   <si>
     <t>Formatting and updating documentation, rephrasing and spell checking</t>
+  </si>
+  <si>
+    <t>Week of 2/29/2018</t>
+  </si>
+  <si>
+    <t>Week of 3/5/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update/Fix documents for upcomming deliverable </t>
+  </si>
+  <si>
+    <t>Time management due to testing as well as several other project/homework deadlines</t>
+  </si>
+  <si>
+    <t>Documents completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,22 +668,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -675,7 +691,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -685,7 +701,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -699,7 +715,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -713,7 +729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,7 +743,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,7 +757,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -755,7 +771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -769,7 +785,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -777,7 +793,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -787,7 +803,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -801,7 +817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -815,7 +831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -829,7 +845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,7 +859,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -857,7 +873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -871,7 +887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -879,7 +895,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -889,7 +905,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -903,7 +919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -917,7 +933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -928,7 +944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -939,7 +955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -950,7 +966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -961,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -969,7 +985,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -979,7 +995,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -993,7 +1009,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1009,7 +1025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1025,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +1057,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1067,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1065,7 +1081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1081,7 +1097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -1113,7 +1129,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1139,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1137,7 +1153,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -1145,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1153,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -1161,7 +1177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1179,516 +1195,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1701,34 +1210,541 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1736,7 +1752,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -1746,7 +1762,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1760,7 +1776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1774,7 +1790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1790,7 +1806,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1806,7 +1822,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1822,7 +1838,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1844,7 +1860,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1854,7 +1870,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1868,7 +1884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1876,7 +1892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1892,7 +1908,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1908,7 +1924,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1924,7 +1940,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1940,7 +1956,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1948,7 +1964,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +1974,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +1988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1988,7 +2004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1996,7 +2012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2004,7 +2020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +2028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -2020,7 +2036,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2046,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2044,7 +2060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2052,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2060,7 +2076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2068,7 +2084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2084,7 +2100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -2092,7 +2108,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2118,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -2116,7 +2132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2124,7 +2140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -2132,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2140,7 +2156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2148,7 +2164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2156,7 +2172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -2164,7 +2180,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2190,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -2188,7 +2204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2196,7 +2212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -2204,7 +2220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2212,7 +2228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2220,7 +2236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2230,12 +2246,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2248,29 +2258,35 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2278,7 +2294,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -2288,7 +2304,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2302,7 +2318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2316,7 +2332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2330,7 +2346,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2344,7 +2360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2358,7 +2374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2388,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -2380,7 +2396,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -2390,7 +2406,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2404,7 +2420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2418,7 +2434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2432,7 +2448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2446,7 +2462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2460,7 +2476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -2474,7 +2490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
@@ -2482,7 +2498,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -2492,7 +2508,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2506,7 +2522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2520,7 +2536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2534,7 +2550,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2548,7 +2564,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2562,7 +2578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2576,7 +2592,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -2584,7 +2600,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
@@ -2594,7 +2610,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2608,7 +2624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2616,7 +2632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2624,7 +2640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2632,7 +2648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2648,7 +2664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -2656,7 +2672,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>0</v>
       </c>
@@ -2666,7 +2682,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -2680,7 +2696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -2688,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -2696,7 +2712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2704,7 +2720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2712,7 +2728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -2720,7 +2736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2744,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>0</v>
       </c>
@@ -2738,7 +2754,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -2752,7 +2768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -2760,7 +2776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -2768,7 +2784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2776,7 +2792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -2784,7 +2800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -2794,12 +2810,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2812,28 +2822,34 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2841,7 +2857,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -2851,7 +2867,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2865,7 +2881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2879,7 +2895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2893,7 +2909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2907,7 +2923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2921,7 +2937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2935,13 +2951,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -2949,7 +2965,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -2959,7 +2975,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2973,7 +2989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2987,7 +3003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3001,7 +3017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3015,7 +3031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3029,7 +3045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -3043,13 +3059,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
@@ -3057,17 +3073,17 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -3081,7 +3097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3091,53 +3107,69 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -3145,7 +3177,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3187,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -3169,7 +3201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -3179,7 +3211,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -3189,7 +3221,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3199,7 +3231,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3209,7 +3241,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -3219,13 +3251,13 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -3233,7 +3265,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>0</v>
       </c>
@@ -3243,7 +3275,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -3257,7 +3289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -3267,7 +3299,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -3277,7 +3309,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3287,7 +3319,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3297,7 +3329,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -3307,13 +3339,13 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3321,7 +3353,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +3363,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -3345,7 +3377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -3355,7 +3387,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -3365,7 +3397,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -3375,7 +3407,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -3385,7 +3417,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -3397,12 +3429,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3415,22 +3441,28 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3438,7 +3470,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -3448,7 +3480,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3462,7 +3494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3470,7 +3502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3478,7 +3510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3486,7 +3518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3494,7 +3526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3502,7 +3534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -3510,7 +3542,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3552,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3534,7 +3566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3542,7 +3574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3550,7 +3582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3558,7 +3590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3566,7 +3598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3574,7 +3606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -3582,7 +3614,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -3592,7 +3624,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -3606,7 +3638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -3614,7 +3646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -3622,7 +3654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -3630,7 +3662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -3638,7 +3670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -3646,7 +3678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -3654,7 +3686,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -3664,7 +3696,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -3678,7 +3710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -3686,7 +3718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -3694,7 +3726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3702,7 +3734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3710,7 +3742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3718,7 +3750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -3726,7 +3758,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -3736,7 +3768,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3750,7 +3782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -3758,7 +3790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -3766,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3774,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3782,7 +3814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3790,7 +3822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -3798,7 +3830,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
@@ -3808,7 +3840,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -3822,7 +3854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -3830,7 +3862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -3838,7 +3870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -3846,7 +3878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -3854,7 +3886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -3864,12 +3896,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3882,6 +3908,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KoreixX\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aariggs\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C54A018-01AA-4BB4-BE96-BEA223C6C10C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="22185" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -22,9 +21,6 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="88">
   <si>
     <t>Week of</t>
   </si>
@@ -150,9 +146,6 @@
   </si>
   <si>
     <t>Week of 3/05/2018</t>
-  </si>
-  <si>
-    <t>Manager</t>
   </si>
   <si>
     <t>Use case diagrams/Documentation</t>
@@ -243,12 +236,6 @@
     <t>Was able to fix java's connection to the mySQL server</t>
   </si>
   <si>
-    <t>Product Ower</t>
-  </si>
-  <si>
-    <t>Product Owner</t>
-  </si>
-  <si>
     <t>Formatting and updating documentation, rephrasing and spell checking</t>
   </si>
   <si>
@@ -298,12 +285,24 @@
   </si>
   <si>
     <t>The way that java handles strings is destroying the encryption data, Java was having trouble reaching the mySQL server.</t>
+  </si>
+  <si>
+    <t>Product Manager</t>
+  </si>
+  <si>
+    <t>Development of the SCMP</t>
+  </si>
+  <si>
+    <t>vague instructions on how to fill out the SCMP</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,23 +444,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -485,17 +472,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,6 +492,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -821,7 +820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -837,195 +836,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1033,13 +1032,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1047,959 +1046,374 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>48</v>
+      <c r="A21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>45</v>
+      <c r="A22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="12"/>
+      <c r="C25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>48</v>
+      <c r="A30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="12"/>
+      <c r="A31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="12"/>
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="12"/>
+      <c r="A33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="12"/>
+      <c r="A34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="12"/>
+      <c r="A35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>48</v>
+      <c r="A39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="A40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="12"/>
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="12"/>
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="12"/>
+      <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="12"/>
+      <c r="A44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>48</v>
+      <c r="A48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="12"/>
+      <c r="A49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="12"/>
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="12"/>
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="12"/>
+      <c r="A52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="12"/>
+      <c r="A53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2012,23 +1426,608 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,585 +2039,603 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12"/>
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="12"/>
+      <c r="A22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="12"/>
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="12"/>
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="12"/>
+      <c r="A26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="12"/>
+      <c r="A31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="12"/>
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="12"/>
+      <c r="A33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="12"/>
+      <c r="A34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="12"/>
+      <c r="A35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="A40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="12"/>
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="12"/>
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="12"/>
+      <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="12"/>
+      <c r="A44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="12" t="s">
+      <c r="C48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="12"/>
+      <c r="A49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="12"/>
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="12"/>
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="12"/>
+      <c r="A52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="12"/>
+      <c r="A53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2631,17 +2648,23 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,31 +2677,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2686,13 +2709,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2700,59 +2723,59 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2762,31 +2785,31 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -2794,13 +2817,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2808,13 +2831,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -2822,13 +2845,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2836,13 +2859,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2850,13 +2873,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2870,31 +2893,31 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -2902,55 +2925,55 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -2958,13 +2981,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -2978,31 +3001,31 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -3010,51 +3033,51 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="4"/>
@@ -3066,31 +3089,31 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -3098,51 +3121,51 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="4"/>
@@ -3154,31 +3177,31 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -3186,63 +3209,57 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3255,13 +3272,19 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -3277,31 +3300,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3309,73 +3332,73 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3385,31 +3408,31 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -3417,13 +3440,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -3431,27 +3454,27 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="15" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -3459,13 +3482,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -3473,13 +3496,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -3493,31 +3516,31 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="6"/>
+      <c r="A20" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -3525,13 +3548,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -3539,59 +3562,59 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3601,31 +3624,31 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -3633,51 +3656,51 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="4"/>
@@ -3689,31 +3712,31 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -3721,51 +3744,51 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="4"/>
@@ -3777,31 +3800,31 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -3809,63 +3832,57 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3878,6 +3895,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3885,7 +3908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3901,535 +3924,529 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12"/>
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12"/>
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12"/>
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12"/>
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="12"/>
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12"/>
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="12"/>
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="12"/>
+      <c r="A16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="12"/>
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="12"/>
+      <c r="A22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="12"/>
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="12"/>
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="12"/>
+      <c r="A25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="12"/>
+      <c r="A26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="12"/>
+      <c r="A31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="12"/>
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="12"/>
+      <c r="A33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="12"/>
+      <c r="A34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="12"/>
+      <c r="A35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="A40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="12"/>
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="12"/>
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="12"/>
+      <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="12"/>
+      <c r="A44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="12" t="s">
+      <c r="C48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="12"/>
+      <c r="A49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="12"/>
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="12"/>
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="12"/>
+      <c r="A52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="12"/>
+      <c r="A53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4442,6 +4459,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsgate\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ABEDA5-01BD-4EE1-9343-2F2FD70D1370}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF96CEBC-F518-4F79-97FE-95F8F5CD08C6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="2" xr2:uid="{C14DF831-F34F-414D-AAFA-D8324DB30ED1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968" activeTab="5" xr2:uid="{C14DF831-F34F-414D-AAFA-D8324DB30ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="87">
   <si>
     <t>Week of</t>
   </si>
@@ -214,9 +214,6 @@
     <t xml:space="preserve">Update documents </t>
   </si>
   <si>
-    <t>Update documentations, talk about implementation, and start coding.</t>
-  </si>
-  <si>
     <t>Created login, account creation, home page screens.</t>
   </si>
   <si>
@@ -278,6 +275,24 @@
   </si>
   <si>
     <t>Was able to fix java's connection to the mySQL server</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>Created login screen.</t>
+  </si>
+  <si>
+    <t>Week of  2/19/2018</t>
+  </si>
+  <si>
+    <t>Cleaned up GUI  and Create GRL and UCM Models document.</t>
+  </si>
+  <si>
+    <t>how to create GRL and UCM correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create GRL and UCM correctly</t>
   </si>
 </sst>
 </file>
@@ -321,13 +336,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,37 +659,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A726F0A-5F28-4C1C-A552-E596D5063A23}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -688,7 +703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -702,7 +717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,7 +731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -730,7 +745,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -744,7 +759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -758,25 +773,25 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -790,7 +805,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -804,7 +819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -815,10 +830,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,10 +844,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -846,7 +861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -860,25 +875,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -892,7 +907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -906,69 +921,69 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -982,7 +997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -990,7 +1005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -998,7 +1013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1006,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1022,25 +1037,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1054,7 +1069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1094,25 +1109,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1168,9 +1183,516 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6186206B-49DF-4BAF-BCA3-2072C7EB9045}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1183,519 +1705,12 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6186206B-49DF-4BAF-BCA3-2072C7EB9045}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1705,37 +1720,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6E39C0-3A30-4150-AA6A-2A04DB3FF51A}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +1764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1763,87 +1778,87 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1857,7 +1872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1865,89 +1880,89 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1961,7 +1976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1969,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1977,7 +1992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1985,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1993,7 +2008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2001,25 +2016,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2033,7 +2048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2041,7 +2056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2049,7 +2064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2057,7 +2072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2073,25 +2088,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -2105,7 +2120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2113,7 +2128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -2121,7 +2136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2129,7 +2144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2137,7 +2152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2145,25 +2160,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -2177,7 +2192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2185,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -2193,7 +2208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2201,7 +2216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2209,7 +2224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2219,6 +2234,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2231,12 +2252,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2247,37 +2262,37 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2291,7 +2306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2305,7 +2320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2319,7 +2334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2347,7 +2362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2361,25 +2376,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2393,7 +2408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2407,7 +2422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2421,7 +2436,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2435,7 +2450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2449,7 +2464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -2463,25 +2478,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2495,7 +2510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2506,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2517,7 +2532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2528,7 +2543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2539,7 +2554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2550,25 +2565,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2582,7 +2597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2590,7 +2605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2598,7 +2613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2606,7 +2621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2614,7 +2629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2622,25 +2637,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -2654,7 +2669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -2662,7 +2677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -2670,7 +2685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2678,7 +2693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2686,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -2694,25 +2709,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -2726,7 +2741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -2734,7 +2749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -2742,7 +2757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2750,7 +2765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -2758,7 +2773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -2768,6 +2783,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2780,12 +2801,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2795,37 +2810,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0193E54-C821-4268-9DAD-312CE7027412}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2839,7 +2854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2851,7 +2866,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2865,7 +2880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2879,7 +2894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2893,7 +2908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2907,31 +2922,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2945,7 +2960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2959,7 +2974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2973,7 +2988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2987,7 +3002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3001,7 +3016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -3015,31 +3030,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -3053,7 +3068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3063,7 +3078,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -3073,7 +3088,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -3083,7 +3098,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3093,7 +3108,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -3103,31 +3118,31 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -3141,7 +3156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -3151,7 +3166,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -3161,7 +3176,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3171,7 +3186,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3181,7 +3196,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -3191,31 +3206,31 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -3229,7 +3244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -3239,7 +3254,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -3249,7 +3264,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3259,7 +3274,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3269,7 +3284,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -3279,31 +3294,31 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -3317,7 +3332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -3327,7 +3342,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -3337,7 +3352,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -3347,7 +3362,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -3357,7 +3372,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -3369,6 +3384,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3381,12 +3402,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3396,31 +3411,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF77B59-FF08-4FBF-8BBC-E87617B2BC46}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3434,65 +3455,95 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3506,65 +3557,95 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -3578,65 +3659,83 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -3650,7 +3749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -3658,7 +3757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -3666,7 +3765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3674,7 +3773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3682,7 +3781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3690,25 +3789,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3722,7 +3821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -3730,7 +3829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -3738,7 +3837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3746,7 +3845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3754,7 +3853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3762,25 +3861,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -3794,7 +3893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -3802,7 +3901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -3810,7 +3909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -3818,7 +3917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -3826,7 +3925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -3836,6 +3935,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3848,12 +3953,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF96CEBC-F518-4F79-97FE-95F8F5CD08C6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968" activeTab="5" xr2:uid="{C14DF831-F34F-414D-AAFA-D8324DB30ED1}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="21576" windowHeight="7968" activeTab="1" xr2:uid="{C14DF831-F34F-414D-AAFA-D8324DB30ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="89">
   <si>
     <t>Week of</t>
   </si>
@@ -293,6 +292,12 @@
   </si>
   <si>
     <t xml:space="preserve"> create GRL and UCM correctly</t>
+  </si>
+  <si>
+    <t>Updated and clarified Documentation</t>
+  </si>
+  <si>
+    <t>Update Documentation, Work on encryption</t>
   </si>
 </sst>
 </file>
@@ -1183,516 +1188,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6186206B-49DF-4BAF-BCA3-2072C7EB9045}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1705,12 +1203,528 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6186206B-49DF-4BAF-BCA3-2072C7EB9045}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1720,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6E39C0-3A30-4150-AA6A-2A04DB3FF51A}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2234,12 +2248,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2252,6 +2260,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2783,12 +2797,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2801,6 +2809,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2810,7 +2824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0193E54-C821-4268-9DAD-312CE7027412}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3384,12 +3398,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3402,6 +3410,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3411,7 +3425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF77B59-FF08-4FBF-8BBC-E87617B2BC46}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -3585,7 +3599,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3599,7 +3613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3613,7 +3627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3673,7 +3687,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -3757,7 +3771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -3765,7 +3779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3829,7 +3843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -3837,7 +3851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3901,7 +3915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -3909,7 +3923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -3935,12 +3949,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3953,6 +3961,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCF04A0-9410-4D8F-A8CE-A797B15DCF38}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBA4DBE-4651-49A3-8364-A98753BFEA37}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="96">
   <si>
     <t>Week of</t>
   </si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t xml:space="preserve"> create GRL and UCM correctly</t>
-  </si>
-  <si>
-    <t>Out of date info and inconsistencie</t>
   </si>
 </sst>
 </file>
@@ -1443,24 +1440,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -2031,6 +2028,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
@@ -2040,15 +2046,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2644,6 +2641,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2656,12 +2659,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3268,6 +3265,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3280,12 +3283,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3891,6 +3888,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3903,12 +3906,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3919,7 +3916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -4232,7 +4229,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -4515,6 +4512,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4527,12 +4530,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBA4DBE-4651-49A3-8364-A98753BFEA37}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5CB01C-DEE5-4FBC-BFD1-66905155943C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="94">
   <si>
     <t>Week of</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Week of 3/05/2018</t>
-  </si>
-  <si>
-    <t>Manager</t>
   </si>
   <si>
     <t>Use case diagrams/Documentation</t>
@@ -243,9 +240,6 @@
     <t>Was able to fix java's connection to the mySQL server</t>
   </si>
   <si>
-    <t>Product Ower</t>
-  </si>
-  <si>
     <t>Product Owner</t>
   </si>
   <si>
@@ -300,32 +294,32 @@
     <t>The way that java handles strings is destroying the encryption data, Java was having trouble reaching the mySQL server.</t>
   </si>
   <si>
-    <t>developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create and update documents 
+    <t>Created login screen.</t>
+  </si>
+  <si>
+    <t>Formatting and updating documentation</t>
+  </si>
+  <si>
+    <t>Cleaned up GUI  and Create GRL and UCM Models document.</t>
+  </si>
+  <si>
+    <t>How to create GRL and UCM correctly</t>
+  </si>
+  <si>
+    <t>Create GRL and UCM correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create and update documents 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">create and update documents </t>
-  </si>
-  <si>
-    <t xml:space="preserve">properly formatting the required documents </t>
-  </si>
-  <si>
-    <t>Created login screen.</t>
-  </si>
-  <si>
-    <t>Formatting and updating documentation</t>
-  </si>
-  <si>
-    <t>Cleaned up GUI  and Create GRL and UCM Models document.</t>
-  </si>
-  <si>
-    <t>how to create GRL and UCM correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> create GRL and UCM correctly</t>
+    <t>Made sure that every task was followed by each team member.</t>
+  </si>
+  <si>
+    <t>Start implementation for main functionalities in the application.</t>
+  </si>
+  <si>
+    <t>Disagreements between members.</t>
   </si>
 </sst>
 </file>
@@ -852,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,13 +881,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -915,13 +909,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -929,13 +923,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -943,13 +937,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -957,13 +951,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -995,13 +989,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1023,13 +1017,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -1037,13 +1031,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1103,13 +1097,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1117,13 +1111,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
@@ -1131,48 +1125,56 @@
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="13" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
@@ -1203,13 +1205,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1291,13 +1293,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1379,13 +1381,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1440,24 +1442,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1468,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1517,13 +1519,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1531,13 +1533,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -1545,13 +1547,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1617,13 +1619,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -1631,13 +1633,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -1645,13 +1647,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2028,6 +2030,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2037,15 +2048,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2055,7 +2057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -2118,13 +2120,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2134,13 +2136,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2150,13 +2152,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2166,13 +2168,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2228,13 +2230,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2244,13 +2246,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2260,13 +2262,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2276,13 +2278,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2641,12 +2643,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2659,6 +2655,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2668,14 +2670,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.109375" style="1"/>
@@ -2732,13 +2734,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -2746,13 +2748,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -2760,13 +2762,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -2774,13 +2776,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2934,13 +2936,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
@@ -2954,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
@@ -2968,7 +2970,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -3265,12 +3267,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3283,6 +3279,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3292,7 +3294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -3341,13 +3343,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -3355,13 +3357,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -3369,13 +3371,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3383,13 +3385,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3397,13 +3399,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3463,13 +3465,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
@@ -3477,7 +3479,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
@@ -3491,7 +3493,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>5</v>
@@ -3530,11 +3532,11 @@
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="17"/>
     </row>
@@ -3571,13 +3573,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -3585,13 +3587,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -3599,13 +3601,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3613,13 +3615,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3888,12 +3890,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3906,6 +3902,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3916,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3965,27 +3967,27 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>89</v>
+      <c r="D5" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -3993,13 +3995,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -4007,13 +4009,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -4021,13 +4023,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -4073,13 +4075,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4087,13 +4089,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4101,13 +4103,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -4181,13 +4183,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4195,13 +4197,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4209,13 +4211,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -4223,7 +4225,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>5</v>
@@ -4237,7 +4239,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>6</v>
@@ -4512,12 +4514,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4530,6 +4526,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5CB01C-DEE5-4FBC-BFD1-66905155943C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16093847-C70B-4FBC-9274-6004116CA809}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="97">
   <si>
     <t>Week of</t>
   </si>
@@ -320,6 +317,15 @@
   </si>
   <si>
     <t>Disagreements between members.</t>
+  </si>
+  <si>
+    <t>Development of the SCMP</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Vague instructions on how to fill out the SCMP</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -527,6 +533,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -846,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -1442,24 +1460,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -2030,6 +2048,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
@@ -2039,15 +2066,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2057,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2331,51 +2349,71 @@
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="C22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="29" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D24" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="C25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="C26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="29" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
@@ -2643,6 +2681,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2655,12 +2699,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3267,6 +3305,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3279,12 +3323,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3890,6 +3928,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3902,12 +3946,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3918,7 +3956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -4514,6 +4552,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4526,12 +4570,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16093847-C70B-4FBC-9274-6004116CA809}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B953D25C-9E40-4CAC-8361-F2F4D339D104}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="97">
   <si>
     <t>Week of</t>
   </si>
@@ -501,6 +501,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,18 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -877,22 +877,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -985,22 +985,22 @@
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -1093,22 +1093,22 @@
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -1201,22 +1201,22 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
@@ -1289,22 +1289,22 @@
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
@@ -1377,22 +1377,22 @@
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -1460,24 +1460,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1501,22 +1501,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1601,22 +1601,22 @@
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -1701,22 +1701,22 @@
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -1789,22 +1789,22 @@
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
@@ -1877,22 +1877,22 @@
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
@@ -1965,22 +1965,22 @@
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
@@ -2048,6 +2048,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2057,15 +2066,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2075,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2088,22 +2088,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -2202,22 +2202,22 @@
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -2237,11 +2237,15 @@
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -2314,22 +2318,22 @@
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -2349,13 +2353,13 @@
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2363,13 +2367,13 @@
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="18" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2377,13 +2381,13 @@
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="18" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2391,13 +2395,13 @@
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="17" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2405,13 +2409,13 @@
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2422,22 +2426,22 @@
       <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
@@ -2510,22 +2514,22 @@
       <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
@@ -2598,22 +2602,22 @@
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -2681,12 +2685,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2699,6 +2697,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2722,22 +2726,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -2830,22 +2834,22 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -2938,22 +2942,22 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -3046,22 +3050,22 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -3134,22 +3138,22 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -3222,22 +3226,22 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
@@ -3305,12 +3309,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3323,6 +3321,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3345,22 +3349,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -3453,22 +3457,22 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -3561,22 +3565,22 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -3669,22 +3673,22 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -3757,22 +3761,22 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -3845,22 +3849,22 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
@@ -3928,12 +3932,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3946,6 +3944,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3969,22 +3973,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -4077,22 +4081,22 @@
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -4185,22 +4189,22 @@
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -4293,22 +4297,22 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
@@ -4381,22 +4385,22 @@
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
@@ -4469,22 +4473,22 @@
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -4552,12 +4556,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4570,6 +4568,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B953D25C-9E40-4CAC-8361-F2F4D339D104}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C10BA7-F760-41E6-8AF3-BDD913FE37AD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -868,15 +868,15 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -884,7 +884,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -894,7 +894,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -922,7 +922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -936,7 +936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -950,7 +950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -964,7 +964,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -978,13 +978,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -992,7 +992,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1086,13 +1086,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1194,13 +1194,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1208,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1282,13 +1282,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -1370,13 +1370,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -1384,7 +1384,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -1460,24 +1460,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1492,15 +1492,15 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1594,13 +1594,13 @@
       </c>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>2</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>5</v>
       </c>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
@@ -1694,13 +1694,13 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>5</v>
       </c>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
@@ -1782,13 +1782,13 @@
       </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>1</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>2</v>
       </c>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
@@ -1870,13 +1870,13 @@
       </c>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>1</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>2</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>6</v>
       </c>
@@ -1958,13 +1958,13 @@
       </c>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>1</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>2</v>
       </c>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>5</v>
       </c>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>6</v>
       </c>
@@ -2048,6 +2048,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
@@ -2057,15 +2066,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2075,19 +2075,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -2181,7 +2181,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2195,13 +2195,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2263,7 +2263,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -2311,13 +2311,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -2325,17 +2325,17 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="20"/>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="21"/>
       <c r="C20" s="21" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -2419,13 +2419,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>0</v>
       </c>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -2507,13 +2507,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -2521,7 +2521,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -2595,13 +2595,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -2685,6 +2685,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2697,12 +2703,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2712,20 +2712,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2827,13 +2827,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -2841,7 +2841,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -2935,13 +2935,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -2949,7 +2949,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3043,13 +3043,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>0</v>
       </c>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3131,13 +3131,13 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3145,7 +3145,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -3219,13 +3219,13 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -3309,6 +3309,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3321,12 +3327,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3340,15 +3340,15 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="40.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -3356,7 +3356,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3450,13 +3450,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3558,13 +3558,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>69</v>
       </c>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3666,13 +3666,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>0</v>
       </c>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3754,13 +3754,13 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -3842,13 +3842,13 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -3932,6 +3932,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3944,12 +3950,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3960,19 +3960,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -3980,7 +3980,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -4074,13 +4074,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4088,7 +4088,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>18</v>
       </c>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -4182,13 +4182,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -4290,13 +4290,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -4304,7 +4304,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>18</v>
       </c>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -4378,13 +4378,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -4392,7 +4392,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>18</v>
       </c>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -4466,13 +4466,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>11</v>
       </c>
@@ -4480,7 +4480,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>18</v>
       </c>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -4556,6 +4556,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4568,12 +4574,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C10BA7-F760-41E6-8AF3-BDD913FE37AD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B62018-7C1E-4028-A9BF-D7C5EC91FEEB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -533,18 +533,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -864,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -1460,24 +1448,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1488,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -2048,6 +2036,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2057,15 +2054,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2685,12 +2673,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2703,6 +2685,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3309,12 +3297,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3327,6 +3309,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3337,7 +3325,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3932,12 +3920,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3950,6 +3932,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3960,8 +3948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,12 +3969,12 @@
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="21" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D2" s="21"/>
     </row>
@@ -4089,14 +4077,14 @@
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="29"/>
+      <c r="A11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -4197,12 +4185,12 @@
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="20"/>
+      <c r="A20" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="21"/>
       <c r="C20" s="21" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D20" s="21"/>
     </row>
@@ -4556,12 +4544,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4574,6 +4556,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_Team_Member_Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B62018-7C1E-4028-A9BF-D7C5EC91FEEB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="107">
   <si>
     <t>Week of</t>
   </si>
@@ -326,6 +325,41 @@
   </si>
   <si>
     <t>Vague instructions on how to fill out the SCMP</t>
+  </si>
+  <si>
+    <t>Using supplimentary .jar files</t>
+  </si>
+  <si>
+    <t>SRS design ignorance</t>
+  </si>
+  <si>
+    <t>Implementing .jar files</t>
+  </si>
+  <si>
+    <t>Research of SRS design/
+requirements</t>
+  </si>
+  <si>
+    <t>Updated Documentation</t>
+  </si>
+  <si>
+    <t>Updated content and syntax of 
+SRS</t>
+  </si>
+  <si>
+    <t>Updated Content and syntax of
+SRS and modified Team
+Member Report</t>
+  </si>
+  <si>
+    <t>Time management due to 
+midterms</t>
+  </si>
+  <si>
+    <t>Content Added to SRS</t>
+  </si>
+  <si>
+    <t>SRS Syntax Fixed</t>
   </si>
 </sst>
 </file>
@@ -856,15 +890,15 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -872,7 +906,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -882,7 +916,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -896,7 +930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -910,7 +944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -924,7 +958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -938,7 +972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -952,7 +986,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -966,13 +1000,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -980,7 +1014,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -990,7 +1024,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1004,7 +1038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1018,7 +1052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +1066,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1060,7 +1094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1074,13 +1108,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1122,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -1098,7 +1132,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1112,7 +1146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1140,7 +1174,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1188,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1168,7 +1202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1182,13 +1216,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1230,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1240,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -1220,7 +1254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -1230,7 +1264,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1240,7 +1274,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1284,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -1260,7 +1294,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1270,13 +1304,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -1284,7 +1318,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1328,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -1308,7 +1342,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -1318,7 +1352,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -1328,7 +1362,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -1338,7 +1372,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -1348,7 +1382,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -1358,13 +1392,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -1372,7 +1406,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1416,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +1430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -1406,7 +1440,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -1416,7 +1450,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -1426,7 +1460,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -1436,7 +1470,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -1448,9 +1482,622 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1463,597 +2110,12 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2067,15 +2129,15 @@
       <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -2083,7 +2145,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -2093,7 +2155,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2107,7 +2169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2121,7 +2183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2137,7 +2199,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2153,7 +2215,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -2169,7 +2231,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2183,13 +2245,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2197,7 +2259,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2207,7 +2269,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2221,7 +2283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -2235,7 +2297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2251,7 +2313,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2267,7 +2329,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2283,7 +2345,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -2299,13 +2361,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -2313,7 +2375,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -2323,7 +2385,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -2337,7 +2399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -2351,7 +2413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2365,7 +2427,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2379,7 +2441,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2393,7 +2455,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -2407,13 +2469,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -2421,7 +2483,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>0</v>
       </c>
@@ -2431,7 +2493,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -2445,7 +2507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -2455,7 +2517,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -2465,7 +2527,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2475,7 +2537,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2485,7 +2547,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -2495,13 +2557,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -2509,7 +2571,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +2581,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2533,7 +2595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -2543,7 +2605,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2553,7 +2615,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -2563,7 +2625,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -2573,7 +2635,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -2583,13 +2645,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -2597,7 +2659,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2669,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2621,7 +2683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2631,7 +2693,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2641,7 +2703,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -2651,7 +2713,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2661,7 +2723,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -2673,6 +2735,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2685,12 +2753,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2704,16 +2766,16 @@
       <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -2721,7 +2783,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -2731,7 +2793,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2745,7 +2807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2759,7 +2821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2773,7 +2835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2787,7 +2849,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2801,7 +2863,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2815,13 +2877,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -2829,7 +2891,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2839,7 +2901,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -2853,7 +2915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2867,7 +2929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2881,7 +2943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2895,7 +2957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2909,7 +2971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -2923,13 +2985,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -2937,7 +2999,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -2947,7 +3009,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -2961,7 +3023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -2975,7 +3037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2989,7 +3051,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3003,7 +3065,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3017,7 +3079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3031,13 +3093,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3045,7 +3107,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>0</v>
       </c>
@@ -3055,7 +3117,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3069,7 +3131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3079,7 +3141,7 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3089,7 +3151,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3099,7 +3161,7 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3109,7 +3171,7 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3119,13 +3181,13 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3133,7 +3195,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
@@ -3143,7 +3205,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3157,7 +3219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3167,7 +3229,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -3177,7 +3239,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3187,7 +3249,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -3197,7 +3259,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -3207,13 +3269,13 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -3221,7 +3283,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -3231,7 +3293,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -3245,7 +3307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -3255,7 +3317,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3265,7 +3327,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3275,7 +3337,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -3285,7 +3347,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -3297,6 +3359,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3309,12 +3377,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3328,15 +3390,15 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -3344,7 +3406,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3354,7 +3416,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3368,7 +3430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3382,7 +3444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3396,7 +3458,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3410,7 +3472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3424,7 +3486,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3438,13 +3500,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -3452,7 +3514,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3462,7 +3524,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3476,7 +3538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3490,7 +3552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3504,7 +3566,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3518,7 +3580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3532,7 +3594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3546,13 +3608,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3560,7 +3622,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>69</v>
       </c>
@@ -3570,7 +3632,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3584,7 +3646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3598,7 +3660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3612,7 +3674,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3626,7 +3688,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3640,7 +3702,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3654,13 +3716,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3668,7 +3730,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>0</v>
       </c>
@@ -3678,7 +3740,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3692,7 +3754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3702,7 +3764,7 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3712,7 +3774,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3722,7 +3784,7 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3732,7 +3794,7 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3742,13 +3804,13 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3756,7 +3818,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +3828,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3780,7 +3842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3790,7 +3852,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -3800,7 +3862,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3810,7 +3872,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -3820,7 +3882,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -3830,13 +3892,13 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -3844,7 +3906,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -3854,7 +3916,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -3868,7 +3930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -3878,7 +3940,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3888,7 +3950,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3898,7 +3960,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -3908,7 +3970,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -3920,6 +3982,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3932,12 +4000,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3948,19 +4010,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -3968,7 +4030,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3978,7 +4040,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3992,7 +4054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4006,7 +4068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4020,7 +4082,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4034,7 +4096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4048,7 +4110,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -4062,13 +4124,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4076,7 +4138,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -4086,7 +4148,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -4100,7 +4162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -4114,7 +4176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -4128,7 +4190,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4142,7 +4204,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -4156,7 +4218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -4170,13 +4232,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -4184,7 +4246,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>69</v>
       </c>
@@ -4194,7 +4256,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -4208,7 +4270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -4222,7 +4284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4236,7 +4298,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4250,7 +4312,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -4264,7 +4326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -4278,13 +4340,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -4292,7 +4354,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>18</v>
       </c>
@@ -4302,7 +4364,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -4316,7 +4378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -4326,7 +4388,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -4336,7 +4398,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4346,7 +4408,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -4356,7 +4418,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -4366,13 +4428,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -4380,7 +4442,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>18</v>
       </c>
@@ -4390,7 +4452,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -4404,7 +4466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -4414,7 +4476,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4424,7 +4486,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4434,7 +4496,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -4444,7 +4506,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -4454,13 +4516,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>11</v>
       </c>
@@ -4468,7 +4530,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>18</v>
       </c>
@@ -4478,7 +4540,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -4492,7 +4554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -4502,7 +4564,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4512,7 +4574,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4522,7 +4584,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -4532,7 +4594,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -4544,6 +4606,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4556,12 +4624,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
